--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>43803</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44615</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44853</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44957</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43380</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45063</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>43949</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43536</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43838</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44104</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44838</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44855</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>45103</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43389</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43469</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43585</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43587</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43591</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43607</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43664</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43682</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43696</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43706</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43707</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43719</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43724</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43731</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43749</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43754</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43761</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43768</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43795</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43804</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43808</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43811</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43841</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43864</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43884</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43950</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43997</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44000</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44004</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44011</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44015</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>44068</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44082</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44095</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44118</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44120</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44151</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44152</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44169</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44271</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44336</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44337</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44351</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44370</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44377</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44390</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44410</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44417</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44431</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44465</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44483</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44484</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44505</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44524</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44526</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>44533</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44568</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44579</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44622</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44648</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44719</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44721</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44742</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44755</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44756</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44757</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44771</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44799</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44817</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44824</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44825</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44837</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44839</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44841</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44845</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44848</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44851</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44853</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44859</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44860</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44861</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44876</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44888</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44893</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44895</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44902</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44910</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44930</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44935</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44942</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44950</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44960</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44962</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44970</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44971</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44972</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44974</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44979</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44980</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44986</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44987</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44993</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44998</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45001</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45002</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45013</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45015</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45027</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45036</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45040</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45041</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45044</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45054</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45055</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45057</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45064</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45069</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45071</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45075</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45079</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45090</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45091</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>45097</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45103</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45107</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45110</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45119</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>43803</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44615</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44853</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44957</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43380</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45063</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>43949</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43536</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43838</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44104</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44838</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44855</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>45103</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43389</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43469</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43585</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43587</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43591</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43607</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43664</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43682</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43696</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43706</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43707</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43719</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43724</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43731</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43749</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43754</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43761</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43768</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43795</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43804</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43808</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43811</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43841</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43864</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43884</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43950</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43997</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44000</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44004</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44011</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44015</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>44068</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44082</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44095</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44118</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44120</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44151</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44152</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44169</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44271</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44336</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44337</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44351</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44370</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44377</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44390</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44410</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44417</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44431</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44465</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44483</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44484</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44505</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44524</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44526</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>44533</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44568</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44579</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44622</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44648</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44719</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44721</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44742</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44755</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44756</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44757</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44771</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44799</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44817</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44824</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44825</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44837</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44839</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44841</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44845</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44848</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44851</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44853</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44859</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44860</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44861</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44876</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44888</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44893</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44895</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44902</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44910</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44930</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44935</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44942</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44950</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44960</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44962</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44970</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44971</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44972</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44974</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44979</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44980</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44986</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44987</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44993</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44998</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45001</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45002</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45013</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45015</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45027</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45036</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45040</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45041</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45044</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45054</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45055</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45057</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45064</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45069</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45071</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45075</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45079</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45090</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45091</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>45097</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45103</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45107</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45110</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45119</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>43803</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44615</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44853</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44957</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43380</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45063</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>43949</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43536</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43838</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44104</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44838</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44855</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>45103</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43389</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43469</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43585</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43587</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43591</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43607</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43664</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43682</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43696</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43706</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43707</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43719</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43724</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43731</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43749</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43754</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43761</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43768</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43795</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43804</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43808</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43811</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43841</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43864</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43884</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43950</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43997</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44000</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44004</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44011</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44015</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>44068</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44082</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44095</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44118</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44120</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44151</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44152</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44169</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44271</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44336</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44337</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44351</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44370</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44377</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44390</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44410</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44417</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44431</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44465</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44483</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44484</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44505</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44524</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44526</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>44533</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44568</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44579</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44622</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44648</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44719</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44721</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44742</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44755</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44756</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44757</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44771</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44799</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44817</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44824</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44825</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44837</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44839</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44841</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44845</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44848</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44851</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44853</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44859</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44860</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44861</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44876</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44888</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44893</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44895</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44902</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44910</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44930</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44935</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44942</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44950</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44960</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44962</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44970</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44971</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44972</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44974</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44979</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44980</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44986</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44987</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44993</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44998</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45001</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45002</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45013</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45015</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45027</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45036</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45040</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45041</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45044</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45054</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45055</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45057</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45064</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45069</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45071</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45075</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45079</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45090</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45091</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>45097</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45103</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45107</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45110</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45119</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>43803</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44615</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44853</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44957</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43380</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45063</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>43949</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43536</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43838</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44104</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44838</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44855</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>45103</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43389</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43469</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43585</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43587</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43591</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43607</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43664</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43682</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43696</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43706</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43707</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43719</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43724</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43731</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43749</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43754</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43761</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43768</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43795</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43804</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43808</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43811</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43841</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43864</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43884</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43950</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43997</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44000</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44004</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44011</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44015</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>44068</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44082</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44095</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44118</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44120</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44151</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44152</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44169</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44271</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44336</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44337</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44351</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44370</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44377</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44390</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44410</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44417</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44431</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44465</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44483</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44484</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44505</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44524</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44526</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>44533</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44568</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44579</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44622</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44648</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44719</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44721</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44742</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44755</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44756</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44757</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44771</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44799</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44817</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44824</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44825</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44837</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44839</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44841</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44845</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44848</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44851</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44853</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44859</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44860</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44861</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44876</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44888</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44893</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44895</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44902</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44910</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44930</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44935</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44942</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44950</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44960</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44962</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44970</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44971</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44972</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44974</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44979</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44980</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44986</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44987</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44993</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44998</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45001</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45002</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45013</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45015</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45027</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45036</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45040</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45041</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45044</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45054</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45055</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45057</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45064</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45069</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45071</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45075</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45079</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45090</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45091</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>45097</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45103</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45107</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45110</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45119</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>43803</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44615</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44853</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44957</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43380</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45063</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>43949</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43536</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43838</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44104</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44838</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44855</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>45103</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43389</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43469</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43585</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43587</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43591</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43607</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43664</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43682</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43696</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43706</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43707</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43719</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43724</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43731</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43749</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43754</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43761</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43768</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43795</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43804</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43808</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43811</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43841</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43864</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43884</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43950</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43997</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44000</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44004</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44011</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44015</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>44068</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44082</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44095</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44118</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44120</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44151</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44152</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44169</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44271</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44336</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44337</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44351</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44370</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44377</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44390</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44410</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44417</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44431</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44465</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44483</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44484</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44505</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44524</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44526</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>44533</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44568</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44579</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44622</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44648</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44719</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44721</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44742</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44755</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44756</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44757</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44771</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44799</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44817</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44824</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44825</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44837</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44839</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44841</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44845</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44848</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44851</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44853</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44859</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44860</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44861</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44876</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44888</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44893</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44895</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44902</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44910</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44930</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44935</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44942</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44950</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44960</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44962</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44970</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44971</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44972</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44974</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44979</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44980</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44986</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44987</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44993</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44998</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45001</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45002</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45013</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45015</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45027</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45036</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45040</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45041</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45044</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45054</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45055</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45057</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45064</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45069</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45071</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45075</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45079</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45090</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45091</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>45097</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45103</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45107</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45110</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45119</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>43803</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -961,7 +961,7 @@
         <v>44104</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1056,7 +1056,7 @@
         <v>44474</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1150,7 +1150,7 @@
         <v>44615</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1239,7 +1239,7 @@
         <v>44853</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1328,7 +1328,7 @@
         <v>44494</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1416,7 +1416,7 @@
         <v>44957</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1504,7 +1504,7 @@
         <v>43380</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         <v>44112</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1688,7 +1688,7 @@
         <v>45063</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         <v>43803</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>43949</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         <v>44526</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2139,7 +2139,7 @@
         <v>44902</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>45148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2321,7 +2321,7 @@
         <v>43388</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         <v>43536</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         <v>43838</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2581,7 +2581,7 @@
         <v>44104</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         <v>44838</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2846,7 +2846,7 @@
         <v>44855</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2936,7 +2936,7 @@
         <v>44883</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44953</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3116,7 +3116,7 @@
         <v>45103</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3206,7 +3206,7 @@
         <v>43320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
         <v>43334</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>43369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3392,7 +3392,7 @@
         <v>43375</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3449,7 +3449,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3506,7 +3506,7 @@
         <v>43384</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3563,7 +3563,7 @@
         <v>43389</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3625,7 +3625,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3687,7 +3687,7 @@
         <v>43397</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3744,7 +3744,7 @@
         <v>43398</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3801,7 +3801,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3858,7 +3858,7 @@
         <v>43403</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3920,7 +3920,7 @@
         <v>43425</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3982,7 +3982,7 @@
         <v>43469</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4039,7 +4039,7 @@
         <v>43472</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
         <v>43475</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4158,7 +4158,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4215,7 +4215,7 @@
         <v>43508</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4272,7 +4272,7 @@
         <v>43560</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4329,7 +4329,7 @@
         <v>43566</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4386,7 +4386,7 @@
         <v>43585</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
         <v>43587</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4510,7 +4510,7 @@
         <v>43591</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4567,7 +4567,7 @@
         <v>43593</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>43607</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>43608</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4753,7 +4753,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4815,7 +4815,7 @@
         <v>43613</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>43621</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43633</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>43636</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5058,7 +5058,7 @@
         <v>43644</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5120,7 +5120,7 @@
         <v>43664</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5239,7 +5239,7 @@
         <v>43682</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5296,7 +5296,7 @@
         <v>43696</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43705</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5420,7 +5420,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5482,7 +5482,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5544,7 +5544,7 @@
         <v>43706</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         <v>43707</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5658,7 +5658,7 @@
         <v>43717</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5720,7 +5720,7 @@
         <v>43719</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5844,7 +5844,7 @@
         <v>43724</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5901,7 +5901,7 @@
         <v>43731</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>43749</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6020,7 +6020,7 @@
         <v>43754</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6077,7 +6077,7 @@
         <v>43755</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6139,7 +6139,7 @@
         <v>43759</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6258,7 +6258,7 @@
         <v>43761</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6315,7 +6315,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6372,7 +6372,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6429,7 +6429,7 @@
         <v>43768</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6486,7 +6486,7 @@
         <v>43774</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6548,7 +6548,7 @@
         <v>43777</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6610,7 +6610,7 @@
         <v>43783</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6667,7 +6667,7 @@
         <v>43795</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6724,7 +6724,7 @@
         <v>43797</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6781,7 +6781,7 @@
         <v>43801</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6838,7 +6838,7 @@
         <v>43803</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6900,7 +6900,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6962,7 +6962,7 @@
         <v>43804</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7019,7 +7019,7 @@
         <v>43808</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>43811</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>43837</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>43841</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>43864</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>43884</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>43899</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>43950</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7542,7 +7542,7 @@
         <v>43955</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7599,7 +7599,7 @@
         <v>43997</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7661,7 +7661,7 @@
         <v>44000</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7718,7 +7718,7 @@
         <v>44004</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7780,7 +7780,7 @@
         <v>44005</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7837,7 +7837,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7899,7 +7899,7 @@
         <v>44011</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7956,7 +7956,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8013,7 +8013,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8070,7 +8070,7 @@
         <v>44015</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8127,7 +8127,7 @@
         <v>44068</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8189,7 +8189,7 @@
         <v>44078</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8246,7 +8246,7 @@
         <v>44082</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8308,7 +8308,7 @@
         <v>44095</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8370,7 +8370,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8432,7 +8432,7 @@
         <v>44104</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>44118</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>44120</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>44132</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         <v>44133</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>44151</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8913,7 +8913,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8975,7 +8975,7 @@
         <v>44152</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9099,7 +9099,7 @@
         <v>44168</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44169</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9280,7 +9280,7 @@
         <v>44223</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9337,7 +9337,7 @@
         <v>44232</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9394,7 +9394,7 @@
         <v>44235</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9456,7 +9456,7 @@
         <v>44271</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9513,7 +9513,7 @@
         <v>44294</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9570,7 +9570,7 @@
         <v>44336</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9627,7 +9627,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9684,7 +9684,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9741,7 +9741,7 @@
         <v>44337</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9803,7 +9803,7 @@
         <v>44351</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9865,7 +9865,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9927,7 +9927,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9989,7 +9989,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10046,7 +10046,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10108,7 +10108,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10170,7 +10170,7 @@
         <v>44370</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10227,7 +10227,7 @@
         <v>44377</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10284,7 +10284,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10346,7 +10346,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10403,7 +10403,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10460,7 +10460,7 @@
         <v>44383</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10517,7 +10517,7 @@
         <v>44390</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10579,7 +10579,7 @@
         <v>44410</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10636,7 +10636,7 @@
         <v>44417</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10693,7 +10693,7 @@
         <v>44431</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10755,7 +10755,7 @@
         <v>44465</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10812,7 +10812,7 @@
         <v>44481</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10869,7 +10869,7 @@
         <v>44482</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10931,7 +10931,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10993,7 +10993,7 @@
         <v>44483</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11055,7 +11055,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>44484</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11174,7 +11174,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11231,7 +11231,7 @@
         <v>44487</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11293,7 +11293,7 @@
         <v>44494</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11350,7 +11350,7 @@
         <v>44505</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11412,7 +11412,7 @@
         <v>44509</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11469,7 +11469,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11526,7 +11526,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11583,7 +11583,7 @@
         <v>44517</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11640,7 +11640,7 @@
         <v>44524</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11702,7 +11702,7 @@
         <v>44526</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11759,7 +11759,7 @@
         <v>44533</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11821,7 +11821,7 @@
         <v>44568</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11878,7 +11878,7 @@
         <v>44579</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11935,7 +11935,7 @@
         <v>44587</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11997,7 +11997,7 @@
         <v>44589</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12054,7 +12054,7 @@
         <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12116,7 +12116,7 @@
         <v>44622</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12178,7 +12178,7 @@
         <v>44629</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12240,7 +12240,7 @@
         <v>44645</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12297,7 +12297,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12354,7 +12354,7 @@
         <v>44648</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12411,7 +12411,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
         <v>44692</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12530,7 +12530,7 @@
         <v>44719</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12587,7 +12587,7 @@
         <v>44721</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12649,7 +12649,7 @@
         <v>44725</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12706,7 +12706,7 @@
         <v>44742</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12768,7 +12768,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12830,7 +12830,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12887,7 +12887,7 @@
         <v>44755</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12949,7 +12949,7 @@
         <v>44756</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>44757</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13135,7 +13135,7 @@
         <v>44761</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13192,7 +13192,7 @@
         <v>44771</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13249,7 +13249,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44799</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44802</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13430,7 +13430,7 @@
         <v>44813</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13487,7 +13487,7 @@
         <v>44817</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13611,7 +13611,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13673,7 +13673,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13735,7 +13735,7 @@
         <v>44824</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13797,7 +13797,7 @@
         <v>44825</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13854,7 +13854,7 @@
         <v>44837</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13916,7 +13916,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13978,7 +13978,7 @@
         <v>44838</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14035,7 +14035,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14092,7 +14092,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14154,7 +14154,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14211,7 +14211,7 @@
         <v>44839</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>44841</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14335,7 +14335,7 @@
         <v>44845</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14392,7 +14392,7 @@
         <v>44846</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14454,7 +14454,7 @@
         <v>44848</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14511,7 +14511,7 @@
         <v>44851</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14573,7 +14573,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14635,7 +14635,7 @@
         <v>44852</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>44853</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14759,7 +14759,7 @@
         <v>44859</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14821,7 +14821,7 @@
         <v>44860</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44861</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44867</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15188,7 +15188,7 @@
         <v>44873</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15250,7 +15250,7 @@
         <v>44874</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         <v>44876</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         <v>44886</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15431,7 +15431,7 @@
         <v>44888</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15488,7 +15488,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15545,7 +15545,7 @@
         <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15602,7 +15602,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15659,7 +15659,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15716,7 +15716,7 @@
         <v>44893</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15778,7 +15778,7 @@
         <v>44895</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15840,7 +15840,7 @@
         <v>44902</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15897,7 +15897,7 @@
         <v>44910</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15959,7 +15959,7 @@
         <v>44915</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16021,7 +16021,7 @@
         <v>44925</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16078,7 +16078,7 @@
         <v>44930</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16135,7 +16135,7 @@
         <v>44935</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16192,7 +16192,7 @@
         <v>44937</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16249,7 +16249,7 @@
         <v>44942</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16306,7 +16306,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16363,7 +16363,7 @@
         <v>44950</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16420,7 +16420,7 @@
         <v>44956</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16477,7 +16477,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16539,7 +16539,7 @@
         <v>44958</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16596,7 +16596,7 @@
         <v>44960</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16653,7 +16653,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16715,7 +16715,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16777,7 +16777,7 @@
         <v>44962</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16834,7 +16834,7 @@
         <v>44970</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16896,7 +16896,7 @@
         <v>44971</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16953,7 +16953,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17015,7 +17015,7 @@
         <v>44972</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17077,7 +17077,7 @@
         <v>44974</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17134,7 +17134,7 @@
         <v>44979</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17196,7 +17196,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17258,7 +17258,7 @@
         <v>44980</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17315,7 +17315,7 @@
         <v>44981</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17377,7 +17377,7 @@
         <v>44986</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17439,7 +17439,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17501,7 +17501,7 @@
         <v>44987</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17563,7 +17563,7 @@
         <v>44991</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17625,7 +17625,7 @@
         <v>44993</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44994</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17744,7 +17744,7 @@
         <v>44998</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17801,7 +17801,7 @@
         <v>45000</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17863,7 +17863,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17925,7 +17925,7 @@
         <v>45001</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17982,7 +17982,7 @@
         <v>45002</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18044,7 +18044,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18106,7 +18106,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18168,7 +18168,7 @@
         <v>45005</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18230,7 +18230,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18292,7 +18292,7 @@
         <v>45013</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18411,7 +18411,7 @@
         <v>45015</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18473,7 +18473,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18535,7 +18535,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18597,7 +18597,7 @@
         <v>45027</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18659,7 +18659,7 @@
         <v>45036</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18716,7 +18716,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18773,7 +18773,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18830,7 +18830,7 @@
         <v>45040</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18892,7 +18892,7 @@
         <v>45041</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18954,7 +18954,7 @@
         <v>45044</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19016,7 +19016,7 @@
         <v>45054</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19078,7 +19078,7 @@
         <v>45055</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19140,7 +19140,7 @@
         <v>45057</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45064</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45069</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19383,7 +19383,7 @@
         <v>45071</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19440,7 +19440,7 @@
         <v>45075</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19502,7 +19502,7 @@
         <v>45077</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19559,7 +19559,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19616,7 +19616,7 @@
         <v>45079</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19678,7 +19678,7 @@
         <v>45090</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19735,7 +19735,7 @@
         <v>45091</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19797,7 +19797,7 @@
         <v>45097</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19854,7 +19854,7 @@
         <v>45098</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19911,7 +19911,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19968,7 +19968,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20025,7 +20025,7 @@
         <v>45099</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20082,7 +20082,7 @@
         <v>45103</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20139,7 +20139,7 @@
         <v>45107</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20201,7 +20201,7 @@
         <v>45110</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20258,7 +20258,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>45111</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20382,7 +20382,7 @@
         <v>45114</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20444,7 +20444,7 @@
         <v>45119</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20506,7 +20506,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20568,7 +20568,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20811,7 +20811,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20868,7 +20868,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20930,7 +20930,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21111,7 +21111,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21168,7 +21168,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21230,7 +21230,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21292,7 +21292,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21349,7 +21349,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21406,7 +21406,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21463,7 +21463,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21525,7 +21525,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y338"/>
+  <dimension ref="A1:Y339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44615</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44494</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43380</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45063</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43803</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43949</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43388</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43838</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44104</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44855</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44883</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44953</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45103</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43320</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43384</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43397</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43472</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43607</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43621</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43706</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>43707</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43717</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43719</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43724</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43731</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43754</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43768</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43795</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43797</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43803</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43804</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43808</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43811</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>43837</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43864</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43884</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43950</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>43955</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>43997</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44004</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44011</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44015</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44082</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44095</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44104</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44120</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44132</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>44133</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44151</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44169</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>44232</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44235</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44271</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44294</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44336</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44337</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44370</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44465</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44483</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44494</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44505</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44526</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44533</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44568</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44579</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44622</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44648</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44692</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44725</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44742</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44756</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44757</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44771</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44799</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44802</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44824</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44825</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44837</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44841</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44846</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44851</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44853</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44860</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44861</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44874</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44876</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44888</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44893</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44902</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44910</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44915</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44925</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44930</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44935</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44937</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44942</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44950</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44956</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44960</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>44962</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44970</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44971</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44972</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>44974</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44979</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44980</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44986</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44991</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44998</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45001</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45002</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45005</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45013</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45015</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45027</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45036</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45040</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45041</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45044</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45054</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45057</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>45064</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45071</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45075</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>45079</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45090</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45091</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45097</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45098</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45107</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45110</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45114</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21549,7 +21549,7 @@
       </c>
       <c r="R337" s="2" t="inlineStr"/>
     </row>
-    <row r="338">
+    <row r="338" ht="15" customHeight="1">
       <c r="A338" t="inlineStr">
         <is>
           <t>A 38676-2023</t>
@@ -21559,7 +21559,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21610,6 +21610,68 @@
         <v>0</v>
       </c>
       <c r="R338" s="2" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>A 42515-2023</t>
+        </is>
+      </c>
+      <c r="B339" s="1" t="n">
+        <v>45180</v>
+      </c>
+      <c r="C339" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>VÄSTERBOTTENS LÄN</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>DOROTEA</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>SCA</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="n">
+        <v>0</v>
+      </c>
+      <c r="J339" t="n">
+        <v>0</v>
+      </c>
+      <c r="K339" t="n">
+        <v>0</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0</v>
+      </c>
+      <c r="M339" t="n">
+        <v>0</v>
+      </c>
+      <c r="N339" t="n">
+        <v>0</v>
+      </c>
+      <c r="O339" t="n">
+        <v>0</v>
+      </c>
+      <c r="P339" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
+      <c r="R339" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44615</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44494</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43380</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45063</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43803</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43949</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43388</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43838</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44104</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44855</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44883</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44953</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45103</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43320</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43384</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43397</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43472</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43607</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43621</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43706</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>43707</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43717</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43719</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43724</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43731</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43754</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43768</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43795</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43797</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43803</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43804</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43808</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43811</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>43837</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43864</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43884</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43950</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>43955</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>43997</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44004</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44011</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44015</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44082</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44095</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44104</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44120</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44132</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>44133</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44151</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44169</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>44232</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44235</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44271</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44294</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44336</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44337</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44370</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44465</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44483</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44494</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44505</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44526</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44533</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44568</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44579</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44622</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44648</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44692</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44725</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44742</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44756</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44757</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44771</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44799</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44802</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44824</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44825</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44837</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44841</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44846</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44851</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44853</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44860</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44861</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44874</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44876</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44888</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44893</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44902</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44910</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44915</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44925</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44930</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44935</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44937</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44942</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44950</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44956</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44960</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>44962</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44970</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44971</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44972</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>44974</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44979</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44980</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44986</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44991</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44998</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45001</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45002</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45005</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45013</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45015</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45027</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45036</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45040</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45041</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45044</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45054</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45057</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>45064</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45071</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45075</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>45079</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45090</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45091</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45097</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45098</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45107</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45110</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45114</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45180</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -637,27 +637,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 47447-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 47447-2018.xlsx", "A 47447-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 47447-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 47447-2018.png", "A 47447-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 47447-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 47447-2018.docx", "A 47447-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 47447-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 47447-2018.docx", "A 47447-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 47447-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 47447-2018.docx", "A 47447-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 47447-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 47447-2018.docx", "A 47447-2018")</f>
         <v/>
       </c>
     </row>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -736,27 +736,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 65548-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 65548-2019.xlsx", "A 65548-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 65548-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 65548-2019.png", "A 65548-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 65548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 65548-2019.docx", "A 65548-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 65548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 65548-2019.docx", "A 65548-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 65548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 65548-2019.docx", "A 65548-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 65548-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 65548-2019.docx", "A 65548-2019")</f>
         <v/>
       </c>
     </row>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -832,27 +832,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 46007-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 46007-2018.xlsx", "A 46007-2018")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 46007-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 46007-2018.png", "A 46007-2018")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 46007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 46007-2018.docx", "A 46007-2018")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 46007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 46007-2018.docx", "A 46007-2018")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 46007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 46007-2018.docx", "A 46007-2018")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 46007-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 46007-2018.docx", "A 46007-2018")</f>
         <v/>
       </c>
     </row>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -928,27 +928,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 33655-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 33655-2023.xlsx", "A 33655-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 33655-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 33655-2023.png", "A 33655-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 33655-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 33655-2023.docx", "A 33655-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 33655-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 33655-2023.docx", "A 33655-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 33655-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 33655-2023.docx", "A 33655-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 33655-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 33655-2023.docx", "A 33655-2023")</f>
         <v/>
       </c>
     </row>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,27 +1023,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 65561-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 65561-2019.xlsx", "A 65561-2019")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 65561-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 65561-2019.png", "A 65561-2019")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 65561-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 65561-2019.docx", "A 65561-2019")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 65561-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 65561-2019.docx", "A 65561-2019")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 65561-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 65561-2019.docx", "A 65561-2019")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 65561-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 65561-2019.docx", "A 65561-2019")</f>
         <v/>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,27 +1118,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 49684-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 49684-2020.xlsx", "A 49684-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 49684-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 49684-2020.png", "A 49684-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 49684-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 49684-2020.docx", "A 49684-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 49684-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 49684-2020.docx", "A 49684-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 49684-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 49684-2020.docx", "A 49684-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 49684-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 49684-2020.docx", "A 49684-2020")</f>
         <v/>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1212,27 +1212,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 54981-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 54981-2021.xlsx", "A 54981-2021")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 54981-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 54981-2021.png", "A 54981-2021")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 54981-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 54981-2021.docx", "A 54981-2021")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 54981-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 54981-2021.docx", "A 54981-2021")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 54981-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 54981-2021.docx", "A 54981-2021")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 54981-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 54981-2021.docx", "A 54981-2021")</f>
         <v/>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
         <v>44615</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1301,27 +1301,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 9196-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 9196-2022.xlsx", "A 9196-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 9196-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 9196-2022.png", "A 9196-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 9196-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 9196-2022.docx", "A 9196-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 9196-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 9196-2022.docx", "A 9196-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 9196-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 9196-2022.docx", "A 9196-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 9196-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 9196-2022.docx", "A 9196-2022")</f>
         <v/>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1390,27 +1390,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 47955-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 47955-2022.xlsx", "A 47955-2022")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 47955-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 47955-2022.png", "A 47955-2022")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 47955-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 47955-2022.docx", "A 47955-2022")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 47955-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 47955-2022.docx", "A 47955-2022")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 47955-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 47955-2022.docx", "A 47955-2022")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 47955-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 47955-2022.docx", "A 47955-2022")</f>
         <v/>
       </c>
     </row>
@@ -1424,7 +1424,7 @@
         <v>44494</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1478,27 +1478,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 60124-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 60124-2021.xlsx", "A 60124-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 60124-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 60124-2021.png", "A 60124-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 60124-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 60124-2021.docx", "A 60124-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 60124-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 60124-2021.docx", "A 60124-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 60124-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 60124-2021.docx", "A 60124-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 60124-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 60124-2021.docx", "A 60124-2021")</f>
         <v/>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
         <v>44957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1566,27 +1566,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 4828-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 4828-2023.xlsx", "A 4828-2023")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 4828-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 4828-2023.png", "A 4828-2023")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 4828-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 4828-2023.docx", "A 4828-2023")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 4828-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 4828-2023.docx", "A 4828-2023")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 4828-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 4828-2023.docx", "A 4828-2023")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 4828-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 4828-2023.docx", "A 4828-2023")</f>
         <v/>
       </c>
     </row>
@@ -1600,7 +1600,7 @@
         <v>43380</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1658,27 +1658,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 50497-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 50497-2018.xlsx", "A 50497-2018")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 50497-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 50497-2018.png", "A 50497-2018")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 50497-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 50497-2018.docx", "A 50497-2018")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 50497-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 50497-2018.docx", "A 50497-2018")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 50497-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 50497-2018.docx", "A 50497-2018")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 50497-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 50497-2018.docx", "A 50497-2018")</f>
         <v/>
       </c>
     </row>
@@ -1692,7 +1692,7 @@
         <v>44112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1750,27 +1750,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 51376-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 51376-2020.xlsx", "A 51376-2020")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 51376-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 51376-2020.png", "A 51376-2020")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 51376-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 51376-2020.docx", "A 51376-2020")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 51376-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 51376-2020.docx", "A 51376-2020")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 51376-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 51376-2020.docx", "A 51376-2020")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 51376-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 51376-2020.docx", "A 51376-2020")</f>
         <v/>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
         <v>45063</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1842,27 +1842,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 21672-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 21672-2023.xlsx", "A 21672-2023")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 21672-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 21672-2023.png", "A 21672-2023")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 21672-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 21672-2023.docx", "A 21672-2023")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 21672-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 21672-2023.docx", "A 21672-2023")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 21672-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 21672-2023.docx", "A 21672-2023")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 21672-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 21672-2023.docx", "A 21672-2023")</f>
         <v/>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1933,27 +1933,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 65569-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 65569-2019.xlsx", "A 65569-2019")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 65569-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 65569-2019.png", "A 65569-2019")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 65569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 65569-2019.docx", "A 65569-2019")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 65569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 65569-2019.docx", "A 65569-2019")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 65569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 65569-2019.docx", "A 65569-2019")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 65569-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 65569-2019.docx", "A 65569-2019")</f>
         <v/>
       </c>
     </row>
@@ -1967,7 +1967,7 @@
         <v>43803</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2024,27 +2024,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 65564-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 65564-2019.xlsx", "A 65564-2019")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 65564-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 65564-2019.png", "A 65564-2019")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 65564-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 65564-2019.docx", "A 65564-2019")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 65564-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 65564-2019.docx", "A 65564-2019")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 65564-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 65564-2019.docx", "A 65564-2019")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 65564-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 65564-2019.docx", "A 65564-2019")</f>
         <v/>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>43949</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2110,27 +2110,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 20878-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 20878-2020.xlsx", "A 20878-2020")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 20878-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 20878-2020.png", "A 20878-2020")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 20878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 20878-2020.docx", "A 20878-2020")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 20878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 20878-2020.docx", "A 20878-2020")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 20878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 20878-2020.docx", "A 20878-2020")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 20878-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 20878-2020.docx", "A 20878-2020")</f>
         <v/>
       </c>
     </row>
@@ -2144,7 +2144,7 @@
         <v>44526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2201,27 +2201,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 67790-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 67790-2021.xlsx", "A 67790-2021")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 67790-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 67790-2021.png", "A 67790-2021")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 67790-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 67790-2021.docx", "A 67790-2021")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 67790-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 67790-2021.docx", "A 67790-2021")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 67790-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 67790-2021.docx", "A 67790-2021")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 67790-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 67790-2021.docx", "A 67790-2021")</f>
         <v/>
       </c>
     </row>
@@ -2235,7 +2235,7 @@
         <v>44902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2292,27 +2292,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 58736-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 58736-2022.xlsx", "A 58736-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 58736-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 58736-2022.png", "A 58736-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 58736-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 58736-2022.docx", "A 58736-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 58736-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 58736-2022.docx", "A 58736-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 58736-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 58736-2022.docx", "A 58736-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 58736-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 58736-2022.docx", "A 58736-2022")</f>
         <v/>
       </c>
     </row>
@@ -2326,7 +2326,7 @@
         <v>45148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2383,27 +2383,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 35988-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 35988-2023.xlsx", "A 35988-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 35988-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 35988-2023.png", "A 35988-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 35988-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 35988-2023.docx", "A 35988-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 35988-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 35988-2023.docx", "A 35988-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 35988-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 35988-2023.docx", "A 35988-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 35988-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 35988-2023.docx", "A 35988-2023")</f>
         <v/>
       </c>
     </row>
@@ -2417,7 +2417,7 @@
         <v>43388</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2468,27 +2468,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 52409-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 52409-2018.xlsx", "A 52409-2018")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 52409-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 52409-2018.png", "A 52409-2018")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 52409-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 52409-2018.docx", "A 52409-2018")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 52409-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 52409-2018.docx", "A 52409-2018")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 52409-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 52409-2018.docx", "A 52409-2018")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 52409-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 52409-2018.docx", "A 52409-2018")</f>
         <v/>
       </c>
     </row>
@@ -2502,7 +2502,7 @@
         <v>43536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2558,27 +2558,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 14581-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 14581-2019.xlsx", "A 14581-2019")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 14581-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 14581-2019.png", "A 14581-2019")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 14581-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 14581-2019.docx", "A 14581-2019")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 14581-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 14581-2019.docx", "A 14581-2019")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 14581-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 14581-2019.docx", "A 14581-2019")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 14581-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 14581-2019.docx", "A 14581-2019")</f>
         <v/>
       </c>
     </row>
@@ -2592,7 +2592,7 @@
         <v>43838</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2643,27 +2643,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 1978-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 1978-2020.xlsx", "A 1978-2020")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 1978-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 1978-2020.png", "A 1978-2020")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 1978-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 1978-2020.docx", "A 1978-2020")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 1978-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 1978-2020.docx", "A 1978-2020")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 1978-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 1978-2020.docx", "A 1978-2020")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 1978-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 1978-2020.docx", "A 1978-2020")</f>
         <v/>
       </c>
     </row>
@@ -2677,7 +2677,7 @@
         <v>44104</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2733,27 +2733,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 49683-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 49683-2020.xlsx", "A 49683-2020")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 49683-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 49683-2020.png", "A 49683-2020")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 49683-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 49683-2020.docx", "A 49683-2020")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 49683-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 49683-2020.docx", "A 49683-2020")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 49683-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 49683-2020.docx", "A 49683-2020")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 49683-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 49683-2020.docx", "A 49683-2020")</f>
         <v/>
       </c>
     </row>
@@ -2767,7 +2767,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2823,27 +2823,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 44036-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 44036-2022.xlsx", "A 44036-2022")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 44036-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 44036-2022.png", "A 44036-2022")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 44036-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 44036-2022.docx", "A 44036-2022")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 44036-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 44036-2022.docx", "A 44036-2022")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 44036-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 44036-2022.docx", "A 44036-2022")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 44036-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 44036-2022.docx", "A 44036-2022")</f>
         <v/>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2908,27 +2908,27 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 44389-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 44389-2022.xlsx", "A 44389-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 44389-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 44389-2022.png", "A 44389-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 44389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 44389-2022.docx", "A 44389-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 44389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 44389-2022.docx", "A 44389-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 44389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 44389-2022.docx", "A 44389-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 44389-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 44389-2022.docx", "A 44389-2022")</f>
         <v/>
       </c>
     </row>
@@ -2942,7 +2942,7 @@
         <v>44855</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2998,27 +2998,27 @@
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 48089-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 48089-2022.xlsx", "A 48089-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 48089-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 48089-2022.png", "A 48089-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 48089-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 48089-2022.docx", "A 48089-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 48089-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 48089-2022.docx", "A 48089-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 48089-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 48089-2022.docx", "A 48089-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 48089-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 48089-2022.docx", "A 48089-2022")</f>
         <v/>
       </c>
     </row>
@@ -3032,7 +3032,7 @@
         <v>44883</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3088,27 +3088,27 @@
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 54832-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 54832-2022.xlsx", "A 54832-2022")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 54832-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 54832-2022.png", "A 54832-2022")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 54832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 54832-2022.docx", "A 54832-2022")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 54832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 54832-2022.docx", "A 54832-2022")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 54832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 54832-2022.docx", "A 54832-2022")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 54832-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 54832-2022.docx", "A 54832-2022")</f>
         <v/>
       </c>
     </row>
@@ -3122,7 +3122,7 @@
         <v>44953</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3178,27 +3178,27 @@
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 4341-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 4341-2023.xlsx", "A 4341-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 4341-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 4341-2023.png", "A 4341-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 4341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 4341-2023.docx", "A 4341-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 4341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 4341-2023.docx", "A 4341-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 4341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 4341-2023.docx", "A 4341-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 4341-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 4341-2023.docx", "A 4341-2023")</f>
         <v/>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
         <v>45103</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3268,27 +3268,27 @@
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 28716-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/artfynd/A 28716-2023.xlsx", "A 28716-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 28716-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/kartor/A 28716-2023.png", "A 28716-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 28716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomål/A 28716-2023.docx", "A 28716-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 28716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/klagomålsmail/A 28716-2023.docx", "A 28716-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 28716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsyn/A 28716-2023.docx", "A 28716-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 28716-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_DOROTEA/tillsynsmail/A 28716-2023.docx", "A 28716-2023")</f>
         <v/>
       </c>
     </row>
@@ -3302,7 +3302,7 @@
         <v>43320</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43384</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43397</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43472</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43607</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43621</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43706</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>43707</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43717</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43719</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43724</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43731</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43754</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43768</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43795</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43797</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43803</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43804</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43808</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43811</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>43837</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43864</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43884</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43950</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>43955</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>43997</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44004</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44011</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44015</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44082</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44095</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44104</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44120</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44132</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>44133</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44151</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44169</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>44232</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44235</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44271</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44294</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44336</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44337</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44370</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44465</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44483</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44494</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44505</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44526</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44533</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44568</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44579</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44622</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44648</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44692</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44725</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44742</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44756</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44757</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44771</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44799</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44802</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44824</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44825</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44837</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44841</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44846</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44851</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44853</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44860</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44861</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44874</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44876</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44888</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44893</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44902</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44910</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44915</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44925</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44930</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44935</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44937</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44942</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44950</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44956</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44960</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>44962</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44970</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44971</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44972</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>44974</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44979</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44980</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44986</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44991</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44998</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45001</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45002</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45005</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45013</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45015</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45027</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45036</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45040</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45041</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45044</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45054</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45057</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>45064</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45071</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45075</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>45079</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45090</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45091</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45097</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45098</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45107</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45110</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45114</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45180</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44615</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44494</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43380</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45063</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43803</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43949</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43388</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43838</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44104</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44855</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44883</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44953</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45103</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43320</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43384</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43397</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43472</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43607</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43621</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43706</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>43707</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43717</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43719</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43724</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43731</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43754</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43768</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43795</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43797</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43803</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43804</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43808</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43811</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>43837</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43864</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43884</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43950</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>43955</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>43997</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44004</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44011</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44015</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44082</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44095</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44104</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44120</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44132</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>44133</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44151</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44169</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>44232</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44235</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44271</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44294</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44336</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44337</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44370</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44465</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44483</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44494</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44505</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44526</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44533</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44568</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44579</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44622</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44648</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44692</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44725</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44742</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44756</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44757</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44771</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44799</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44802</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44824</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44825</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44837</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44841</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44846</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44851</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44853</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44860</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44861</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44874</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44876</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44888</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44893</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44902</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44910</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44915</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44925</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44930</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44935</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44937</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44942</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44950</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44956</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44960</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>44962</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44970</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44971</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44972</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>44974</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44979</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44980</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44986</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44991</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44998</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45001</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45002</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45005</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45013</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45015</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45027</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45036</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45040</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45041</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45044</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45054</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45057</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>45064</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45071</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45075</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>45079</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45090</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45091</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45097</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45098</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45107</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45110</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45114</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45180</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44615</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44494</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43380</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45063</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43803</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43949</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43388</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43838</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44104</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44855</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44883</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44953</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45103</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43320</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43384</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43397</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43472</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43607</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43621</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43706</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>43707</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43717</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43719</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43724</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43731</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43754</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43768</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43795</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43797</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43803</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43804</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43808</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43811</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>43837</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43864</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43884</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43950</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>43955</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>43997</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44004</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44011</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44015</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44082</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44095</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44104</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44120</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44132</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>44133</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44151</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44169</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>44232</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44235</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44271</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44294</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44336</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44337</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44370</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44465</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44483</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44494</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44505</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44526</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44533</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44568</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44579</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44622</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44648</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44692</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44725</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44742</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44756</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44757</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44771</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44799</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44802</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44824</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44825</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44837</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44841</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44846</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44851</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44853</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44860</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44861</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44874</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44876</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44888</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44893</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44902</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44910</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44915</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44925</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44930</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44935</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44937</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44942</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44950</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44956</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44960</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>44962</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44970</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44971</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44972</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>44974</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44979</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44980</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44986</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44991</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44998</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45001</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45002</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45005</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45013</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45015</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45027</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45036</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45040</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45041</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45044</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45054</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45057</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>45064</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45071</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45075</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>45079</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45090</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45091</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45097</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45098</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45107</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45110</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45114</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45180</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44615</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44494</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43380</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45063</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43803</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43949</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43388</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43838</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44104</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44855</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44883</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44953</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45103</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43320</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43384</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43397</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43472</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43607</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43621</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43706</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>43707</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43717</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43719</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43724</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43731</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43754</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43768</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43795</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43797</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43803</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43804</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43808</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43811</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>43837</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43864</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43884</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43950</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>43955</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>43997</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44004</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44011</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44015</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44082</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44095</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44104</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44120</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44132</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>44133</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44151</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44169</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>44232</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44235</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44271</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44294</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44336</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44337</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44370</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44465</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44483</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44494</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44505</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44526</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44533</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44568</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44579</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44622</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44648</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44692</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44725</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44742</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44756</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44757</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44771</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44799</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44802</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44824</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44825</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44837</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44841</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44846</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44851</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44853</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44860</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44861</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44874</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44876</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44888</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44893</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44902</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44910</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44915</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44925</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44930</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44935</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44937</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44942</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44950</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44956</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44960</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>44962</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44970</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44971</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44972</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>44974</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44979</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44980</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44986</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44991</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44998</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45001</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45002</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45005</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45013</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45015</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45027</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45036</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45040</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45041</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45044</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45054</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45057</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>45064</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45071</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45075</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>45079</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45090</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45091</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45097</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45098</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45107</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45110</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45114</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45180</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>44474</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1246,7 +1246,7 @@
         <v>44615</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1335,7 +1335,7 @@
         <v>44853</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>44494</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
         <v>44957</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>43380</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1692,7 +1692,7 @@
         <v>44112</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1784,7 +1784,7 @@
         <v>45063</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
         <v>43803</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
         <v>43803</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
         <v>43949</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2144,7 +2144,7 @@
         <v>44526</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
         <v>44902</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2326,7 +2326,7 @@
         <v>45148</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43388</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2502,7 +2502,7 @@
         <v>43536</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2592,7 +2592,7 @@
         <v>43838</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>44104</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2767,7 +2767,7 @@
         <v>44838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2857,7 +2857,7 @@
         <v>44838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2942,7 +2942,7 @@
         <v>44855</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3032,7 +3032,7 @@
         <v>44883</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>44953</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45103</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3302,7 +3302,7 @@
         <v>43320</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3364,7 +3364,7 @@
         <v>43334</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3426,7 +3426,7 @@
         <v>43369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>43375</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3545,7 +3545,7 @@
         <v>43375</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3602,7 +3602,7 @@
         <v>43384</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3659,7 +3659,7 @@
         <v>43389</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3721,7 +3721,7 @@
         <v>43389</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>43397</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3840,7 +3840,7 @@
         <v>43398</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3897,7 +3897,7 @@
         <v>43398</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3954,7 +3954,7 @@
         <v>43403</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         <v>43425</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>43469</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4135,7 +4135,7 @@
         <v>43472</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4192,7 +4192,7 @@
         <v>43475</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         <v>43475</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         <v>43508</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>43560</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4425,7 +4425,7 @@
         <v>43566</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4482,7 +4482,7 @@
         <v>43585</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         <v>43587</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>43591</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>43593</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>43607</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         <v>43608</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>43608</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>43613</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43621</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5035,7 +5035,7 @@
         <v>43633</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5092,7 +5092,7 @@
         <v>43636</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5154,7 +5154,7 @@
         <v>43644</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5216,7 +5216,7 @@
         <v>43664</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5278,7 +5278,7 @@
         <v>43664</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5335,7 +5335,7 @@
         <v>43682</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5392,7 +5392,7 @@
         <v>43696</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5454,7 +5454,7 @@
         <v>43705</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5516,7 +5516,7 @@
         <v>43705</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5578,7 +5578,7 @@
         <v>43705</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5640,7 +5640,7 @@
         <v>43706</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5697,7 +5697,7 @@
         <v>43707</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5754,7 +5754,7 @@
         <v>43717</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5816,7 +5816,7 @@
         <v>43719</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5878,7 +5878,7 @@
         <v>43719</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5940,7 +5940,7 @@
         <v>43724</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5997,7 +5997,7 @@
         <v>43731</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6054,7 +6054,7 @@
         <v>43749</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6116,7 +6116,7 @@
         <v>43754</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6173,7 +6173,7 @@
         <v>43755</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6235,7 +6235,7 @@
         <v>43759</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6297,7 +6297,7 @@
         <v>43759</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6354,7 +6354,7 @@
         <v>43761</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6411,7 +6411,7 @@
         <v>43761</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6468,7 +6468,7 @@
         <v>43761</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6525,7 +6525,7 @@
         <v>43768</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         <v>43774</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6644,7 +6644,7 @@
         <v>43777</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6706,7 +6706,7 @@
         <v>43783</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6763,7 +6763,7 @@
         <v>43795</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>43797</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6877,7 +6877,7 @@
         <v>43801</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>43803</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>43803</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7058,7 +7058,7 @@
         <v>43804</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>43808</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7177,7 +7177,7 @@
         <v>43811</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7234,7 +7234,7 @@
         <v>43837</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>43841</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>43864</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7405,7 +7405,7 @@
         <v>43884</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7462,7 +7462,7 @@
         <v>43899</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7519,7 +7519,7 @@
         <v>43899</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7576,7 +7576,7 @@
         <v>43950</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7638,7 +7638,7 @@
         <v>43955</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7695,7 +7695,7 @@
         <v>43997</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44000</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44004</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7876,7 +7876,7 @@
         <v>44005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7933,7 +7933,7 @@
         <v>44005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7995,7 +7995,7 @@
         <v>44011</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8052,7 +8052,7 @@
         <v>44011</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8109,7 +8109,7 @@
         <v>44011</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8166,7 +8166,7 @@
         <v>44015</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44068</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8285,7 +8285,7 @@
         <v>44078</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8342,7 +8342,7 @@
         <v>44082</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8404,7 +8404,7 @@
         <v>44095</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>44095</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8528,7 +8528,7 @@
         <v>44104</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>44104</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8652,7 +8652,7 @@
         <v>44118</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8709,7 +8709,7 @@
         <v>44120</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8766,7 +8766,7 @@
         <v>44132</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8828,7 +8828,7 @@
         <v>44133</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>44151</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44151</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44151</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>44152</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>44152</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44168</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9257,7 +9257,7 @@
         <v>44168</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9319,7 +9319,7 @@
         <v>44169</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9376,7 +9376,7 @@
         <v>44223</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9433,7 +9433,7 @@
         <v>44232</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9490,7 +9490,7 @@
         <v>44235</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         <v>44271</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9609,7 +9609,7 @@
         <v>44294</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>44336</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>44336</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9780,7 +9780,7 @@
         <v>44336</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
         <v>44337</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9899,7 +9899,7 @@
         <v>44351</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9961,7 +9961,7 @@
         <v>44351</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10023,7 +10023,7 @@
         <v>44351</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10085,7 +10085,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10142,7 +10142,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10204,7 +10204,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10266,7 +10266,7 @@
         <v>44370</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10323,7 +10323,7 @@
         <v>44377</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10380,7 +10380,7 @@
         <v>44377</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10442,7 +10442,7 @@
         <v>44377</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10499,7 +10499,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10556,7 +10556,7 @@
         <v>44383</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10613,7 +10613,7 @@
         <v>44390</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10675,7 +10675,7 @@
         <v>44410</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10732,7 +10732,7 @@
         <v>44417</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10789,7 +10789,7 @@
         <v>44431</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10851,7 +10851,7 @@
         <v>44465</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10908,7 +10908,7 @@
         <v>44481</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10965,7 +10965,7 @@
         <v>44482</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11027,7 +11027,7 @@
         <v>44482</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         <v>44483</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         <v>44483</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         <v>44484</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         <v>44484</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11327,7 +11327,7 @@
         <v>44487</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         <v>44494</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         <v>44505</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11508,7 +11508,7 @@
         <v>44509</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         <v>44509</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         <v>44509</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         <v>44517</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         <v>44524</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11798,7 +11798,7 @@
         <v>44526</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11855,7 +11855,7 @@
         <v>44533</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11917,7 +11917,7 @@
         <v>44568</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11974,7 +11974,7 @@
         <v>44579</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12031,7 +12031,7 @@
         <v>44587</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12093,7 +12093,7 @@
         <v>44589</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12150,7 +12150,7 @@
         <v>44614</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12212,7 +12212,7 @@
         <v>44622</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12274,7 +12274,7 @@
         <v>44629</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12336,7 +12336,7 @@
         <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12393,7 +12393,7 @@
         <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12450,7 +12450,7 @@
         <v>44648</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12507,7 +12507,7 @@
         <v>44648</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12564,7 +12564,7 @@
         <v>44692</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12626,7 +12626,7 @@
         <v>44719</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12683,7 +12683,7 @@
         <v>44721</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12745,7 +12745,7 @@
         <v>44725</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12802,7 +12802,7 @@
         <v>44742</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12864,7 +12864,7 @@
         <v>44742</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12926,7 +12926,7 @@
         <v>44742</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12983,7 +12983,7 @@
         <v>44755</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13045,7 +13045,7 @@
         <v>44756</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13107,7 +13107,7 @@
         <v>44757</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13169,7 +13169,7 @@
         <v>44757</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13231,7 +13231,7 @@
         <v>44761</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13288,7 +13288,7 @@
         <v>44771</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13345,7 +13345,7 @@
         <v>44771</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13402,7 +13402,7 @@
         <v>44799</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13464,7 +13464,7 @@
         <v>44802</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13526,7 +13526,7 @@
         <v>44813</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13583,7 +13583,7 @@
         <v>44817</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13645,7 +13645,7 @@
         <v>44817</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13707,7 +13707,7 @@
         <v>44817</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13769,7 +13769,7 @@
         <v>44817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13831,7 +13831,7 @@
         <v>44824</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44825</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44837</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44837</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44838</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44838</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14188,7 +14188,7 @@
         <v>44838</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44839</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44841</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44845</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44846</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14550,7 +14550,7 @@
         <v>44848</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14607,7 +14607,7 @@
         <v>44851</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14669,7 +14669,7 @@
         <v>44851</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14731,7 +14731,7 @@
         <v>44852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44853</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44859</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>44860</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14979,7 +14979,7 @@
         <v>44861</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15041,7 +15041,7 @@
         <v>44861</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15103,7 +15103,7 @@
         <v>44861</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15165,7 +15165,7 @@
         <v>44867</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15227,7 +15227,7 @@
         <v>44867</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15284,7 +15284,7 @@
         <v>44873</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15346,7 +15346,7 @@
         <v>44874</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15408,7 +15408,7 @@
         <v>44876</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15465,7 +15465,7 @@
         <v>44886</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>44888</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>44888</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44889</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>44889</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>44889</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44893</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15874,7 +15874,7 @@
         <v>44895</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15936,7 +15936,7 @@
         <v>44902</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15993,7 +15993,7 @@
         <v>44910</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16055,7 +16055,7 @@
         <v>44915</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16117,7 +16117,7 @@
         <v>44925</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16174,7 +16174,7 @@
         <v>44930</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16231,7 +16231,7 @@
         <v>44935</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16288,7 +16288,7 @@
         <v>44937</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16345,7 +16345,7 @@
         <v>44942</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16402,7 +16402,7 @@
         <v>44942</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44950</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16516,7 +16516,7 @@
         <v>44956</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16573,7 +16573,7 @@
         <v>44956</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44958</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44960</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44960</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16811,7 +16811,7 @@
         <v>44960</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16873,7 +16873,7 @@
         <v>44962</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16930,7 +16930,7 @@
         <v>44970</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16992,7 +16992,7 @@
         <v>44971</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17049,7 +17049,7 @@
         <v>44971</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17111,7 +17111,7 @@
         <v>44972</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17173,7 +17173,7 @@
         <v>44974</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44979</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44979</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17354,7 +17354,7 @@
         <v>44980</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44981</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17473,7 +17473,7 @@
         <v>44986</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         <v>44986</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         <v>44987</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17659,7 +17659,7 @@
         <v>44991</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17721,7 +17721,7 @@
         <v>44993</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17783,7 +17783,7 @@
         <v>44994</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17840,7 +17840,7 @@
         <v>44998</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17897,7 +17897,7 @@
         <v>45000</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17959,7 +17959,7 @@
         <v>45000</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45001</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45002</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>45002</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18202,7 +18202,7 @@
         <v>45002</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18264,7 +18264,7 @@
         <v>45005</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>45005</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18388,7 +18388,7 @@
         <v>45013</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18450,7 +18450,7 @@
         <v>45013</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18507,7 +18507,7 @@
         <v>45015</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18569,7 +18569,7 @@
         <v>45015</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18631,7 +18631,7 @@
         <v>45015</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18693,7 +18693,7 @@
         <v>45027</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18755,7 +18755,7 @@
         <v>45036</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18812,7 +18812,7 @@
         <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18869,7 +18869,7 @@
         <v>45036</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18926,7 +18926,7 @@
         <v>45040</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18988,7 +18988,7 @@
         <v>45041</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19050,7 +19050,7 @@
         <v>45044</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19112,7 +19112,7 @@
         <v>45054</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19174,7 +19174,7 @@
         <v>45055</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19236,7 +19236,7 @@
         <v>45057</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19298,7 +19298,7 @@
         <v>45057</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19360,7 +19360,7 @@
         <v>45064</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19422,7 +19422,7 @@
         <v>45069</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19479,7 +19479,7 @@
         <v>45071</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19536,7 +19536,7 @@
         <v>45075</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19598,7 +19598,7 @@
         <v>45077</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19655,7 +19655,7 @@
         <v>45077</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19712,7 +19712,7 @@
         <v>45079</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19774,7 +19774,7 @@
         <v>45090</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19831,7 +19831,7 @@
         <v>45091</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19893,7 +19893,7 @@
         <v>45097</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19950,7 +19950,7 @@
         <v>45098</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20007,7 +20007,7 @@
         <v>45098</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20064,7 +20064,7 @@
         <v>45098</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20121,7 +20121,7 @@
         <v>45099</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20178,7 +20178,7 @@
         <v>45103</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20235,7 +20235,7 @@
         <v>45107</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20297,7 +20297,7 @@
         <v>45110</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20354,7 +20354,7 @@
         <v>45110</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20416,7 +20416,7 @@
         <v>45111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20478,7 +20478,7 @@
         <v>45114</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20540,7 +20540,7 @@
         <v>45119</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20602,7 +20602,7 @@
         <v>45119</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20664,7 +20664,7 @@
         <v>45120</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20726,7 +20726,7 @@
         <v>45121</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20788,7 +20788,7 @@
         <v>45125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20845,7 +20845,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20902,7 +20902,7 @@
         <v>45140</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20964,7 +20964,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21026,7 +21026,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21083,7 +21083,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21145,7 +21145,7 @@
         <v>45142</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21202,7 +21202,7 @@
         <v>45145</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21264,7 +21264,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21326,7 +21326,7 @@
         <v>45149</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21383,7 +21383,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21440,7 +21440,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21497,7 +21497,7 @@
         <v>45153</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21559,7 +21559,7 @@
         <v>45162</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21621,7 +21621,7 @@
         <v>45180</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44615</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44494</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43380</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45063</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>43803</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2062,7 +2062,7 @@
         <v>43803</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2153,7 +2153,7 @@
         <v>43949</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2239,7 +2239,7 @@
         <v>44526</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>44902</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         <v>45119</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         <v>45148</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>43388</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2688,7 +2688,7 @@
         <v>43536</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2778,7 +2778,7 @@
         <v>43838</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44104</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2953,7 +2953,7 @@
         <v>44838</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3128,7 +3128,7 @@
         <v>44855</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         <v>44883</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         <v>44953</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3398,7 +3398,7 @@
         <v>45103</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3488,7 +3488,7 @@
         <v>45198</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3578,7 +3578,7 @@
         <v>43320</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>43334</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>43369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>43375</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>43375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3878,7 +3878,7 @@
         <v>43384</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3935,7 +3935,7 @@
         <v>43389</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>43389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4059,7 +4059,7 @@
         <v>43397</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>43398</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>43403</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4292,7 +4292,7 @@
         <v>43425</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4354,7 +4354,7 @@
         <v>43469</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>43472</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4468,7 +4468,7 @@
         <v>43475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>43475</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4587,7 +4587,7 @@
         <v>43508</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4644,7 +4644,7 @@
         <v>43560</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         <v>43566</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4758,7 +4758,7 @@
         <v>43585</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>43587</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>43591</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>43593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         <v>43607</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5063,7 +5063,7 @@
         <v>43608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5125,7 +5125,7 @@
         <v>43608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43613</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5249,7 +5249,7 @@
         <v>43621</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5311,7 +5311,7 @@
         <v>43633</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5368,7 +5368,7 @@
         <v>43636</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5430,7 +5430,7 @@
         <v>43644</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5492,7 +5492,7 @@
         <v>43664</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>43664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>43682</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>43696</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5730,7 +5730,7 @@
         <v>43705</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5792,7 +5792,7 @@
         <v>43705</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5854,7 +5854,7 @@
         <v>43705</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         <v>43706</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5973,7 +5973,7 @@
         <v>43707</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6030,7 +6030,7 @@
         <v>43717</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6092,7 +6092,7 @@
         <v>43719</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6154,7 +6154,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         <v>43724</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         <v>43731</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         <v>43749</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6392,7 +6392,7 @@
         <v>43754</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6449,7 +6449,7 @@
         <v>43755</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>43759</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6573,7 +6573,7 @@
         <v>43759</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6630,7 +6630,7 @@
         <v>43761</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6687,7 +6687,7 @@
         <v>43761</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6744,7 +6744,7 @@
         <v>43761</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6801,7 +6801,7 @@
         <v>43768</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6858,7 +6858,7 @@
         <v>43774</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6920,7 +6920,7 @@
         <v>43777</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6982,7 +6982,7 @@
         <v>43783</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7039,7 +7039,7 @@
         <v>43795</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7096,7 +7096,7 @@
         <v>43797</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7153,7 +7153,7 @@
         <v>43801</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7210,7 +7210,7 @@
         <v>43803</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7272,7 +7272,7 @@
         <v>43803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7334,7 +7334,7 @@
         <v>43804</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7391,7 +7391,7 @@
         <v>43808</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7453,7 +7453,7 @@
         <v>43811</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7510,7 +7510,7 @@
         <v>43837</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7567,7 +7567,7 @@
         <v>43841</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7624,7 +7624,7 @@
         <v>43864</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7681,7 +7681,7 @@
         <v>43884</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7738,7 +7738,7 @@
         <v>43899</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7795,7 +7795,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7852,7 +7852,7 @@
         <v>43950</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43955</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43997</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8033,7 +8033,7 @@
         <v>44000</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8090,7 +8090,7 @@
         <v>44004</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8152,7 +8152,7 @@
         <v>44005</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8209,7 +8209,7 @@
         <v>44005</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         <v>44011</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8328,7 +8328,7 @@
         <v>44011</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8385,7 +8385,7 @@
         <v>44011</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8442,7 +8442,7 @@
         <v>44015</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8499,7 +8499,7 @@
         <v>44068</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         <v>44078</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         <v>44082</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8680,7 +8680,7 @@
         <v>44095</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8742,7 +8742,7 @@
         <v>44095</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8804,7 +8804,7 @@
         <v>44104</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         <v>44104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8928,7 +8928,7 @@
         <v>44118</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8985,7 +8985,7 @@
         <v>44120</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9042,7 +9042,7 @@
         <v>44132</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9104,7 +9104,7 @@
         <v>44133</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9161,7 +9161,7 @@
         <v>44151</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9223,7 +9223,7 @@
         <v>44151</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9285,7 +9285,7 @@
         <v>44151</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9347,7 +9347,7 @@
         <v>44152</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9409,7 +9409,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9471,7 +9471,7 @@
         <v>44168</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9533,7 +9533,7 @@
         <v>44168</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9595,7 +9595,7 @@
         <v>44169</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9652,7 +9652,7 @@
         <v>44223</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9709,7 +9709,7 @@
         <v>44232</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9766,7 +9766,7 @@
         <v>44235</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>44271</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>44294</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>44336</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9999,7 +9999,7 @@
         <v>44336</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10056,7 +10056,7 @@
         <v>44336</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10113,7 +10113,7 @@
         <v>44337</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10175,7 +10175,7 @@
         <v>44351</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10237,7 +10237,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10299,7 +10299,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10361,7 +10361,7 @@
         <v>44351</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10418,7 +10418,7 @@
         <v>44351</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>44351</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10542,7 +10542,7 @@
         <v>44370</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10599,7 +10599,7 @@
         <v>44377</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10656,7 +10656,7 @@
         <v>44377</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10718,7 +10718,7 @@
         <v>44377</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>44377</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>44383</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>44390</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10951,7 +10951,7 @@
         <v>44410</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11008,7 +11008,7 @@
         <v>44417</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
         <v>44431</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11127,7 +11127,7 @@
         <v>44465</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11184,7 +11184,7 @@
         <v>44481</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>44482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11303,7 +11303,7 @@
         <v>44482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11365,7 +11365,7 @@
         <v>44483</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11427,7 +11427,7 @@
         <v>44483</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
         <v>44484</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>44484</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>44487</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11665,7 +11665,7 @@
         <v>44494</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>44505</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11784,7 +11784,7 @@
         <v>44509</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11841,7 +11841,7 @@
         <v>44509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>44509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>44517</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12012,7 +12012,7 @@
         <v>44524</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>44526</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>44533</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>44568</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12250,7 +12250,7 @@
         <v>44579</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12307,7 +12307,7 @@
         <v>44587</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12369,7 +12369,7 @@
         <v>44589</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12426,7 +12426,7 @@
         <v>44614</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         <v>44622</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>44629</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12612,7 +12612,7 @@
         <v>44645</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12669,7 +12669,7 @@
         <v>44645</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12726,7 +12726,7 @@
         <v>44648</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>44648</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>44692</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44719</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44721</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13021,7 +13021,7 @@
         <v>44725</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13078,7 +13078,7 @@
         <v>44742</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13140,7 +13140,7 @@
         <v>44742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13202,7 +13202,7 @@
         <v>44742</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13259,7 +13259,7 @@
         <v>44755</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>44756</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13383,7 +13383,7 @@
         <v>44757</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
         <v>44757</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13507,7 +13507,7 @@
         <v>44761</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13564,7 +13564,7 @@
         <v>44771</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13621,7 +13621,7 @@
         <v>44771</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13678,7 +13678,7 @@
         <v>44799</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13740,7 +13740,7 @@
         <v>44802</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13802,7 +13802,7 @@
         <v>44813</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13859,7 +13859,7 @@
         <v>44817</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13921,7 +13921,7 @@
         <v>44817</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13983,7 +13983,7 @@
         <v>44817</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>44817</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14107,7 +14107,7 @@
         <v>44824</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14169,7 +14169,7 @@
         <v>44825</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14226,7 +14226,7 @@
         <v>44837</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14288,7 +14288,7 @@
         <v>44837</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>44838</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>44838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>44838</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14526,7 +14526,7 @@
         <v>44838</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14583,7 +14583,7 @@
         <v>44839</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14645,7 +14645,7 @@
         <v>44841</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14707,7 +14707,7 @@
         <v>44845</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14764,7 +14764,7 @@
         <v>44846</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14826,7 +14826,7 @@
         <v>44848</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14883,7 +14883,7 @@
         <v>44851</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14945,7 +14945,7 @@
         <v>44851</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>44852</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15069,7 +15069,7 @@
         <v>44853</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15131,7 +15131,7 @@
         <v>44859</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15193,7 +15193,7 @@
         <v>44860</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         <v>44861</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15317,7 +15317,7 @@
         <v>44861</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15379,7 +15379,7 @@
         <v>44861</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15441,7 +15441,7 @@
         <v>44867</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15503,7 +15503,7 @@
         <v>44867</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15560,7 +15560,7 @@
         <v>44873</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15622,7 +15622,7 @@
         <v>44874</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15684,7 +15684,7 @@
         <v>44876</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15741,7 +15741,7 @@
         <v>44886</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15803,7 +15803,7 @@
         <v>44888</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15860,7 +15860,7 @@
         <v>44888</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15917,7 +15917,7 @@
         <v>44889</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15974,7 +15974,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16031,7 +16031,7 @@
         <v>44889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16088,7 +16088,7 @@
         <v>44893</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16150,7 +16150,7 @@
         <v>44895</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16212,7 +16212,7 @@
         <v>44902</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16269,7 +16269,7 @@
         <v>44910</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16331,7 +16331,7 @@
         <v>44915</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16393,7 +16393,7 @@
         <v>44925</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16450,7 +16450,7 @@
         <v>44930</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16507,7 +16507,7 @@
         <v>44935</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16564,7 +16564,7 @@
         <v>44937</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
         <v>44942</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16678,7 +16678,7 @@
         <v>44942</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16735,7 +16735,7 @@
         <v>44950</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16792,7 +16792,7 @@
         <v>44956</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16849,7 +16849,7 @@
         <v>44956</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16911,7 +16911,7 @@
         <v>44958</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16968,7 +16968,7 @@
         <v>44960</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17025,7 +17025,7 @@
         <v>44960</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17087,7 +17087,7 @@
         <v>44960</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17149,7 +17149,7 @@
         <v>44962</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17206,7 +17206,7 @@
         <v>44970</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17268,7 +17268,7 @@
         <v>44971</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17325,7 +17325,7 @@
         <v>44971</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17387,7 +17387,7 @@
         <v>44972</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17449,7 +17449,7 @@
         <v>44974</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17506,7 +17506,7 @@
         <v>44979</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17568,7 +17568,7 @@
         <v>44979</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17630,7 +17630,7 @@
         <v>44980</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17687,7 +17687,7 @@
         <v>44981</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
         <v>44986</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17811,7 +17811,7 @@
         <v>44986</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17873,7 +17873,7 @@
         <v>44987</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17935,7 +17935,7 @@
         <v>44991</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17997,7 +17997,7 @@
         <v>44993</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18059,7 +18059,7 @@
         <v>44994</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18116,7 +18116,7 @@
         <v>44998</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18173,7 +18173,7 @@
         <v>45000</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18235,7 +18235,7 @@
         <v>45000</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18297,7 +18297,7 @@
         <v>45001</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18354,7 +18354,7 @@
         <v>45002</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18416,7 +18416,7 @@
         <v>45002</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18478,7 +18478,7 @@
         <v>45002</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18540,7 +18540,7 @@
         <v>45005</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18602,7 +18602,7 @@
         <v>45005</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18664,7 +18664,7 @@
         <v>45013</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18726,7 +18726,7 @@
         <v>45013</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18783,7 +18783,7 @@
         <v>45015</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18845,7 +18845,7 @@
         <v>45015</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18907,7 +18907,7 @@
         <v>45015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18969,7 +18969,7 @@
         <v>45027</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19031,7 +19031,7 @@
         <v>45036</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19088,7 +19088,7 @@
         <v>45036</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19202,7 +19202,7 @@
         <v>45040</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19264,7 +19264,7 @@
         <v>45041</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19326,7 +19326,7 @@
         <v>45044</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19388,7 +19388,7 @@
         <v>45054</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19450,7 +19450,7 @@
         <v>45055</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19512,7 +19512,7 @@
         <v>45057</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19574,7 +19574,7 @@
         <v>45057</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45064</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19698,7 +19698,7 @@
         <v>45069</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19755,7 +19755,7 @@
         <v>45071</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19812,7 +19812,7 @@
         <v>45075</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19874,7 +19874,7 @@
         <v>45077</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19931,7 +19931,7 @@
         <v>45077</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>45079</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>45090</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>45091</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>45097</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20226,7 +20226,7 @@
         <v>45098</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20283,7 +20283,7 @@
         <v>45098</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20340,7 +20340,7 @@
         <v>45098</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20397,7 +20397,7 @@
         <v>45099</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20454,7 +20454,7 @@
         <v>45103</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20511,7 +20511,7 @@
         <v>45107</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20573,7 +20573,7 @@
         <v>45110</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20630,7 +20630,7 @@
         <v>45110</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20692,7 +20692,7 @@
         <v>45111</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20754,7 +20754,7 @@
         <v>45114</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20816,7 +20816,7 @@
         <v>45120</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>45121</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20940,7 +20940,7 @@
         <v>45125</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20997,7 +20997,7 @@
         <v>45125</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21054,7 +21054,7 @@
         <v>45140</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21116,7 +21116,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21178,7 +21178,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21235,7 +21235,7 @@
         <v>45140</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21297,7 +21297,7 @@
         <v>45142</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21354,7 +21354,7 @@
         <v>45145</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21416,7 +21416,7 @@
         <v>45145</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21478,7 +21478,7 @@
         <v>45149</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21535,7 +21535,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21592,7 +21592,7 @@
         <v>45149</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21649,7 +21649,7 @@
         <v>45153</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21711,7 +21711,7 @@
         <v>45162</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21773,7 +21773,7 @@
         <v>45180</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21835,7 +21835,7 @@
         <v>45198</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44615</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44494</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43380</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45063</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45202</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43803</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43803</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43949</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44526</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43388</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43536</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>44104</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44855</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44953</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45103</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>45198</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43320</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>43334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43384</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43425</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43469</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43475</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43508</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43585</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43587</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43613</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43633</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43644</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43664</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43682</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43696</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43705</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43705</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43706</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43707</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43717</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43719</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43731</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43749</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43754</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43755</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43759</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43759</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43761</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43761</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43761</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43768</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43774</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43777</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43783</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43801</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43804</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43811</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43837</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43841</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43884</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43950</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43955</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43997</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44000</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44004</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44005</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>44011</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>44011</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>44011</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>44015</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>44068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44082</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44095</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>44104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44104</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44118</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44132</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44133</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44151</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44151</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44151</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44168</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>44169</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>44223</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44232</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>44235</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44294</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44336</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44336</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44336</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44337</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44351</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44351</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44351</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44351</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44370</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44377</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44377</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44377</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>44377</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44390</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44410</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44465</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44483</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44483</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44484</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44484</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44487</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44494</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44505</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44517</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44526</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44533</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44568</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44579</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44587</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44589</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44614</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44622</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44645</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44645</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44648</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44648</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44692</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>44719</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44742</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44742</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44756</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44757</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44757</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44761</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44771</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44771</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44799</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44802</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44813</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44817</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44817</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44817</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44817</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44824</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44825</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44837</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44837</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44838</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44838</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44838</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44839</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44841</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44845</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44846</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44848</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44851</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44851</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44853</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44859</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44860</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44861</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44861</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44861</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44867</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44867</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44874</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44876</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44888</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44888</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44893</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>44895</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44902</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44910</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44915</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>44925</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44930</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44935</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44937</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44942</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44942</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44950</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44956</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44958</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44960</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44960</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44960</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44962</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44970</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44971</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44971</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44972</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44974</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44979</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44979</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>44980</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44981</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44986</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44986</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44987</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44994</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44998</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45000</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>45000</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45002</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>45002</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45002</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>45005</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45005</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45013</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45013</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>45015</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45015</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45027</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45036</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45041</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>45054</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>45055</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45057</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45057</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>45064</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45069</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45071</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>45075</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45077</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45091</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45097</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45098</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45098</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45098</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45099</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45103</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45107</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>45110</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>45110</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>45111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>45114</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45120</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45121</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45125</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45125</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45140</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45142</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45145</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>45145</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45149</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45149</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45153</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>45198</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45202</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45202</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44615</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44494</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43380</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45063</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45202</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43803</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43803</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43949</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44526</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43388</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43536</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>44104</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44855</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44953</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45103</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>45198</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43320</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>43334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43384</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43425</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43469</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43475</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43508</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43585</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43587</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43613</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43633</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43644</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43664</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43682</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43696</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43705</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43705</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43706</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43707</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43717</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43719</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43731</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43749</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43754</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43755</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43759</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43759</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43761</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43761</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43761</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43768</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43774</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43777</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43783</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43801</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43804</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43811</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43837</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43841</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43884</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43950</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43955</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43997</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44000</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44004</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44005</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>44011</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>44011</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>44011</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>44015</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>44068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44082</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44095</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>44104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44104</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44118</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44132</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44133</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44151</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44151</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44151</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44168</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>44169</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>44223</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44232</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>44235</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44294</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44336</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44336</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44336</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44337</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44351</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44351</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44351</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44351</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44370</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44377</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44377</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44377</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>44377</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44390</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44410</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44465</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44483</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44483</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44484</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44484</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44487</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44494</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44505</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44517</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44526</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44533</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44568</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44579</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44587</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44589</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44614</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44622</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44645</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44645</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44648</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44648</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44692</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>44719</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44742</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44742</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44756</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44757</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44757</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44761</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44771</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44771</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44799</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44802</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44813</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44817</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44817</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44817</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44817</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44824</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44825</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44837</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44837</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44838</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44838</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44838</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44839</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44841</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44845</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44846</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44848</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44851</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44851</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44853</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44859</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44860</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44861</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44861</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44861</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44867</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44867</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44874</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44876</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44888</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44888</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44893</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>44895</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44902</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44910</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44915</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>44925</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44930</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44935</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44937</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44942</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44942</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44950</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44956</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44958</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44960</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44960</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44960</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44962</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44970</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44971</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44971</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44972</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44974</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44979</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44979</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>44980</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44981</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44986</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44986</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44987</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44994</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44998</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45000</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>45000</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45002</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>45002</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45002</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>45005</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45005</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45013</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45013</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>45015</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45015</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45027</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45036</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45041</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>45054</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>45055</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45057</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45057</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>45064</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45069</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45071</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>45075</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45077</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45091</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45097</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45098</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45098</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45098</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45099</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45103</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45107</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>45110</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>45110</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>45111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>45114</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45120</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45121</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45125</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45125</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45140</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45142</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45145</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>45145</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45149</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45149</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45153</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>45198</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45202</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45202</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>

--- a/Översikt DOROTEA.xlsx
+++ b/Översikt DOROTEA.xlsx
@@ -572,7 +572,7 @@
         <v>43369</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -671,7 +671,7 @@
         <v>43803</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
         <v>43364</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -866,7 +866,7 @@
         <v>45119</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>43803</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>44104</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
         <v>45119</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1247,7 +1247,7 @@
         <v>44474</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1341,7 +1341,7 @@
         <v>44615</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1430,7 +1430,7 @@
         <v>44853</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1519,7 +1519,7 @@
         <v>44494</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1607,7 +1607,7 @@
         <v>44957</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1695,7 +1695,7 @@
         <v>43380</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1787,7 +1787,7 @@
         <v>44112</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1879,7 +1879,7 @@
         <v>45063</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         <v>45202</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2063,7 +2063,7 @@
         <v>43803</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>43803</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2245,7 +2245,7 @@
         <v>43949</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         <v>44526</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
         <v>44902</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>45119</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>45148</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2695,7 +2695,7 @@
         <v>43388</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2780,7 +2780,7 @@
         <v>43536</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2870,7 +2870,7 @@
         <v>43838</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2955,7 +2955,7 @@
         <v>44104</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3045,7 +3045,7 @@
         <v>44838</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>44838</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3220,7 +3220,7 @@
         <v>44855</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3310,7 +3310,7 @@
         <v>44883</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3400,7 +3400,7 @@
         <v>44953</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>45103</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3580,7 +3580,7 @@
         <v>45198</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         <v>43320</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3732,7 +3732,7 @@
         <v>43334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3794,7 +3794,7 @@
         <v>43369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3856,7 +3856,7 @@
         <v>43375</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3913,7 +3913,7 @@
         <v>43375</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3970,7 +3970,7 @@
         <v>43384</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4027,7 +4027,7 @@
         <v>43389</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         <v>43389</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4151,7 +4151,7 @@
         <v>43397</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4208,7 +4208,7 @@
         <v>43398</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4265,7 +4265,7 @@
         <v>43398</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4322,7 +4322,7 @@
         <v>43403</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43425</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43469</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43472</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43475</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4622,7 +4622,7 @@
         <v>43475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4679,7 +4679,7 @@
         <v>43508</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4736,7 +4736,7 @@
         <v>43560</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4793,7 +4793,7 @@
         <v>43566</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4850,7 +4850,7 @@
         <v>43585</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4912,7 +4912,7 @@
         <v>43587</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>43591</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>43593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>43607</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>43608</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5217,7 +5217,7 @@
         <v>43608</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5279,7 +5279,7 @@
         <v>43613</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         <v>43621</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5403,7 +5403,7 @@
         <v>43633</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5460,7 +5460,7 @@
         <v>43636</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5522,7 +5522,7 @@
         <v>43644</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5584,7 +5584,7 @@
         <v>43664</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43664</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43682</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43696</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43705</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>43705</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5946,7 +5946,7 @@
         <v>43705</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6008,7 +6008,7 @@
         <v>43706</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6065,7 +6065,7 @@
         <v>43707</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6122,7 +6122,7 @@
         <v>43717</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6184,7 +6184,7 @@
         <v>43719</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>43719</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6308,7 +6308,7 @@
         <v>43724</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6365,7 +6365,7 @@
         <v>43731</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6422,7 +6422,7 @@
         <v>43749</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         <v>43754</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         <v>43755</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6603,7 +6603,7 @@
         <v>43759</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6665,7 +6665,7 @@
         <v>43759</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6722,7 +6722,7 @@
         <v>43761</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6779,7 +6779,7 @@
         <v>43761</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6836,7 +6836,7 @@
         <v>43761</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6893,7 +6893,7 @@
         <v>43768</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6950,7 +6950,7 @@
         <v>43774</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7012,7 +7012,7 @@
         <v>43777</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7074,7 +7074,7 @@
         <v>43783</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7131,7 +7131,7 @@
         <v>43795</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7188,7 +7188,7 @@
         <v>43797</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>43801</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         <v>43803</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7364,7 +7364,7 @@
         <v>43803</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7426,7 +7426,7 @@
         <v>43804</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7483,7 +7483,7 @@
         <v>43808</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7545,7 +7545,7 @@
         <v>43811</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7602,7 +7602,7 @@
         <v>43837</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7659,7 +7659,7 @@
         <v>43841</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7716,7 +7716,7 @@
         <v>43864</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7773,7 +7773,7 @@
         <v>43884</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7830,7 +7830,7 @@
         <v>43899</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7887,7 +7887,7 @@
         <v>43899</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         <v>43950</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         <v>43955</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         <v>43997</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         <v>44000</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         <v>44004</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8244,7 +8244,7 @@
         <v>44005</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8301,7 +8301,7 @@
         <v>44005</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8363,7 +8363,7 @@
         <v>44011</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8420,7 +8420,7 @@
         <v>44011</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8477,7 +8477,7 @@
         <v>44011</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8534,7 +8534,7 @@
         <v>44015</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8591,7 +8591,7 @@
         <v>44068</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8653,7 +8653,7 @@
         <v>44078</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8710,7 +8710,7 @@
         <v>44082</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8772,7 +8772,7 @@
         <v>44095</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8834,7 +8834,7 @@
         <v>44095</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8896,7 +8896,7 @@
         <v>44104</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8958,7 +8958,7 @@
         <v>44104</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>44118</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>44120</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>44132</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -9196,7 +9196,7 @@
         <v>44133</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>44151</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>44151</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
         <v>44151</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -9439,7 +9439,7 @@
         <v>44152</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -9501,7 +9501,7 @@
         <v>44152</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -9563,7 +9563,7 @@
         <v>44168</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>44168</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9687,7 +9687,7 @@
         <v>44169</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9744,7 +9744,7 @@
         <v>44223</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9801,7 +9801,7 @@
         <v>44232</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9858,7 +9858,7 @@
         <v>44235</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9920,7 +9920,7 @@
         <v>44271</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9977,7 +9977,7 @@
         <v>44294</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10034,7 +10034,7 @@
         <v>44336</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10091,7 +10091,7 @@
         <v>44336</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10148,7 +10148,7 @@
         <v>44336</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -10205,7 +10205,7 @@
         <v>44337</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -10267,7 +10267,7 @@
         <v>44351</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -10329,7 +10329,7 @@
         <v>44351</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -10391,7 +10391,7 @@
         <v>44351</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -10453,7 +10453,7 @@
         <v>44351</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -10510,7 +10510,7 @@
         <v>44351</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -10572,7 +10572,7 @@
         <v>44351</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -10634,7 +10634,7 @@
         <v>44370</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10691,7 +10691,7 @@
         <v>44377</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10748,7 +10748,7 @@
         <v>44377</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10810,7 +10810,7 @@
         <v>44377</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10867,7 +10867,7 @@
         <v>44377</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10924,7 +10924,7 @@
         <v>44383</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10981,7 +10981,7 @@
         <v>44390</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11043,7 +11043,7 @@
         <v>44410</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11100,7 +11100,7 @@
         <v>44417</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11157,7 +11157,7 @@
         <v>44431</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -11219,7 +11219,7 @@
         <v>44465</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         <v>44481</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -11333,7 +11333,7 @@
         <v>44482</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -11395,7 +11395,7 @@
         <v>44482</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -11457,7 +11457,7 @@
         <v>44483</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>44483</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -11581,7 +11581,7 @@
         <v>44484</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -11638,7 +11638,7 @@
         <v>44484</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11695,7 +11695,7 @@
         <v>44487</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11757,7 +11757,7 @@
         <v>44494</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11814,7 +11814,7 @@
         <v>44505</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11876,7 +11876,7 @@
         <v>44509</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11933,7 +11933,7 @@
         <v>44509</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11990,7 +11990,7 @@
         <v>44509</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12047,7 +12047,7 @@
         <v>44517</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         <v>44524</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12166,7 +12166,7 @@
         <v>44526</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12223,7 +12223,7 @@
         <v>44533</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -12285,7 +12285,7 @@
         <v>44568</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -12342,7 +12342,7 @@
         <v>44579</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -12399,7 +12399,7 @@
         <v>44587</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -12461,7 +12461,7 @@
         <v>44589</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -12518,7 +12518,7 @@
         <v>44614</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>44622</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -12642,7 +12642,7 @@
         <v>44629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12704,7 +12704,7 @@
         <v>44645</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12761,7 +12761,7 @@
         <v>44645</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12818,7 +12818,7 @@
         <v>44648</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12875,7 +12875,7 @@
         <v>44648</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12932,7 +12932,7 @@
         <v>44692</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12994,7 +12994,7 @@
         <v>44719</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13051,7 +13051,7 @@
         <v>44721</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13113,7 +13113,7 @@
         <v>44725</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13170,7 +13170,7 @@
         <v>44742</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13232,7 +13232,7 @@
         <v>44742</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -13294,7 +13294,7 @@
         <v>44742</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -13351,7 +13351,7 @@
         <v>44755</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -13413,7 +13413,7 @@
         <v>44756</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>44757</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -13537,7 +13537,7 @@
         <v>44757</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>44761</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>44771</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>44771</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44799</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13832,7 +13832,7 @@
         <v>44802</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13894,7 +13894,7 @@
         <v>44813</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13951,7 +13951,7 @@
         <v>44817</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>44817</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>44817</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14137,7 +14137,7 @@
         <v>44817</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44824</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14261,7 +14261,7 @@
         <v>44825</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -14318,7 +14318,7 @@
         <v>44837</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -14380,7 +14380,7 @@
         <v>44837</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -14442,7 +14442,7 @@
         <v>44838</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -14499,7 +14499,7 @@
         <v>44838</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -14556,7 +14556,7 @@
         <v>44838</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -14618,7 +14618,7 @@
         <v>44838</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -14675,7 +14675,7 @@
         <v>44839</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14737,7 +14737,7 @@
         <v>44841</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         <v>44845</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         <v>44846</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14918,7 +14918,7 @@
         <v>44848</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14975,7 +14975,7 @@
         <v>44851</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15037,7 +15037,7 @@
         <v>44851</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15099,7 +15099,7 @@
         <v>44852</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15161,7 +15161,7 @@
         <v>44853</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15223,7 +15223,7 @@
         <v>44859</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15285,7 +15285,7 @@
         <v>44860</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15347,7 +15347,7 @@
         <v>44861</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -15409,7 +15409,7 @@
         <v>44861</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -15471,7 +15471,7 @@
         <v>44861</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -15533,7 +15533,7 @@
         <v>44867</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -15595,7 +15595,7 @@
         <v>44867</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -15652,7 +15652,7 @@
         <v>44873</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -15714,7 +15714,7 @@
         <v>44874</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15776,7 +15776,7 @@
         <v>44876</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15833,7 +15833,7 @@
         <v>44886</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15895,7 +15895,7 @@
         <v>44888</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15952,7 +15952,7 @@
         <v>44888</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16009,7 +16009,7 @@
         <v>44889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16066,7 +16066,7 @@
         <v>44889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16123,7 +16123,7 @@
         <v>44889</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16180,7 +16180,7 @@
         <v>44893</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16242,7 +16242,7 @@
         <v>44895</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16304,7 +16304,7 @@
         <v>44902</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16361,7 +16361,7 @@
         <v>44910</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -16423,7 +16423,7 @@
         <v>44915</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -16485,7 +16485,7 @@
         <v>44925</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -16542,7 +16542,7 @@
         <v>44930</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -16599,7 +16599,7 @@
         <v>44935</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -16656,7 +16656,7 @@
         <v>44937</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -16713,7 +16713,7 @@
         <v>44942</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16770,7 +16770,7 @@
         <v>44942</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16827,7 +16827,7 @@
         <v>44950</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16884,7 +16884,7 @@
         <v>44956</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16941,7 +16941,7 @@
         <v>44956</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17003,7 +17003,7 @@
         <v>44958</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17060,7 +17060,7 @@
         <v>44960</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17117,7 +17117,7 @@
         <v>44960</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17179,7 +17179,7 @@
         <v>44960</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17241,7 +17241,7 @@
         <v>44962</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17298,7 +17298,7 @@
         <v>44970</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17360,7 +17360,7 @@
         <v>44971</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -17417,7 +17417,7 @@
         <v>44971</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -17479,7 +17479,7 @@
         <v>44972</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -17541,7 +17541,7 @@
         <v>44974</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -17598,7 +17598,7 @@
         <v>44979</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -17660,7 +17660,7 @@
         <v>44979</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -17722,7 +17722,7 @@
         <v>44980</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17779,7 +17779,7 @@
         <v>44981</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
         <v>44986</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17903,7 +17903,7 @@
         <v>44986</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17965,7 +17965,7 @@
         <v>44987</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18027,7 +18027,7 @@
         <v>44991</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18089,7 +18089,7 @@
         <v>44993</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18151,7 +18151,7 @@
         <v>44994</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18208,7 +18208,7 @@
         <v>44998</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18265,7 +18265,7 @@
         <v>45000</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18327,7 +18327,7 @@
         <v>45000</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18389,7 +18389,7 @@
         <v>45001</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -18446,7 +18446,7 @@
         <v>45002</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -18508,7 +18508,7 @@
         <v>45002</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -18570,7 +18570,7 @@
         <v>45002</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -18632,7 +18632,7 @@
         <v>45005</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -18694,7 +18694,7 @@
         <v>45005</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -18756,7 +18756,7 @@
         <v>45013</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18818,7 +18818,7 @@
         <v>45013</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18875,7 +18875,7 @@
         <v>45015</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>45015</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18999,7 +18999,7 @@
         <v>45015</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19061,7 +19061,7 @@
         <v>45027</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45036</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45036</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45036</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45040</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19356,7 +19356,7 @@
         <v>45041</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19418,7 +19418,7 @@
         <v>45044</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19480,7 +19480,7 @@
         <v>45054</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -19542,7 +19542,7 @@
         <v>45055</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -19604,7 +19604,7 @@
         <v>45057</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -19666,7 +19666,7 @@
         <v>45057</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -19728,7 +19728,7 @@
         <v>45064</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -19790,7 +19790,7 @@
         <v>45069</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19847,7 +19847,7 @@
         <v>45071</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19904,7 +19904,7 @@
         <v>45075</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19966,7 +19966,7 @@
         <v>45077</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20023,7 +20023,7 @@
         <v>45077</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>45079</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20142,7 +20142,7 @@
         <v>45090</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20199,7 +20199,7 @@
         <v>45091</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20261,7 +20261,7 @@
         <v>45097</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20318,7 +20318,7 @@
         <v>45098</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20375,7 +20375,7 @@
         <v>45098</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20432,7 +20432,7 @@
         <v>45098</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20489,7 +20489,7 @@
         <v>45099</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -20546,7 +20546,7 @@
         <v>45103</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -20603,7 +20603,7 @@
         <v>45107</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -20665,7 +20665,7 @@
         <v>45110</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -20722,7 +20722,7 @@
         <v>45110</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -20784,7 +20784,7 @@
         <v>45111</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20846,7 +20846,7 @@
         <v>45114</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20908,7 +20908,7 @@
         <v>45120</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20970,7 +20970,7 @@
         <v>45121</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21032,7 +21032,7 @@
         <v>45125</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21089,7 +21089,7 @@
         <v>45125</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21146,7 +21146,7 @@
         <v>45140</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21208,7 +21208,7 @@
         <v>45140</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21270,7 +21270,7 @@
         <v>45140</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21327,7 +21327,7 @@
         <v>45140</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21389,7 +21389,7 @@
         <v>45142</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21446,7 +21446,7 @@
         <v>45145</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21508,7 +21508,7 @@
         <v>45145</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21570,7 +21570,7 @@
         <v>45149</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -21627,7 +21627,7 @@
         <v>45149</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -21684,7 +21684,7 @@
         <v>45149</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -21741,7 +21741,7 @@
         <v>45153</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -21803,7 +21803,7 @@
         <v>45162</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45180</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21927,7 +21927,7 @@
         <v>45198</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45202</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22051,7 +22051,7 @@
         <v>45202</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45206</v>
+        <v>45208</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
